--- a/Docs/Taetigkeitsdokumentation_FEHLER.xlsx
+++ b/Docs/Taetigkeitsdokumentation_FEHLER.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Datei</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>Regelwerk_GUI.py</t>
+  </si>
+  <si>
+    <t>toggle_white_mode</t>
+  </si>
+  <si>
+    <t>create_menu</t>
+  </si>
+  <si>
+    <t>shop.py</t>
+  </si>
+  <si>
+    <t>on_button_click</t>
   </si>
 </sst>
 </file>
@@ -359,13 +371,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -633,22 +645,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.74238227146814406</c:v>
+                  <c:v>0.68542199488491051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9390581717451522E-2</c:v>
+                  <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.5805626598465472E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1440443213296399</c:v>
+                  <c:v>0.13299232736572891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.4182825484764546E-2</c:v>
+                  <c:v>8.6956521739130432E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,7 +1347,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4549542D-0DEB-D9BF-8A3B-B272C078F112}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4549542D-0DEB-D9BF-8A3B-B272C078F112}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1645,14 +1657,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
@@ -1680,12 +1692,12 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="12">
         <v>45638</v>
       </c>
@@ -1698,7 +1710,7 @@
       </c>
       <c r="I2" s="2">
         <f t="shared" ref="I2:M2" si="0">SUM(I4:I10000)</f>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
@@ -1706,7 +1718,7 @@
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
@@ -1738,11 +1750,11 @@
       </c>
       <c r="H3" s="17">
         <f>H2/SUM($H$4:$M$1001)</f>
-        <v>0.74238227146814406</v>
+        <v>0.68542199488491051</v>
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:M3" si="1">I2/SUM($H$4:$M$1001)</f>
-        <v>1.9390581717451522E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="J3" s="19">
         <f t="shared" si="1"/>
@@ -1750,15 +1762,15 @@
       </c>
       <c r="K3" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5805626598465472E-2</v>
       </c>
       <c r="L3" s="19">
         <f t="shared" si="1"/>
-        <v>0.1440443213296399</v>
+        <v>0.13299232736572891</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="1"/>
-        <v>9.4182825484764546E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1896,23 +1908,23 @@
         <v>50</v>
       </c>
       <c r="I6" t="str">
-        <f>IF($E6=I$1, $Q4 * $R4, "")</f>
+        <f t="shared" ref="I6:M7" si="3">IF($E6=I$1, $Q4 * $R4, "")</f>
         <v/>
       </c>
       <c r="J6" t="str">
-        <f>IF($E6=J$1, $Q4 * $R4, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f>IF($E6=K$1, $Q4 * $R4, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L6" t="str">
-        <f>IF($E6=L$1, $Q4 * $R4, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M6" s="8" t="str">
-        <f>IF($E6=M$1, $Q4 * $R4, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1937,23 +1949,23 @@
         <v>73</v>
       </c>
       <c r="I7" t="str">
-        <f>IF($E7=I$1, $Q5 * $R5, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J7" t="str">
-        <f>IF($E7=J$1, $Q5 * $R5, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f>IF($E7=K$1, $Q5 * $R5, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f>IF($E7=L$1, $Q5 * $R5, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M7" s="8" t="str">
-        <f>IF($E7=M$1, $Q5 * $R5, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O7" s="7" t="s">
@@ -1990,27 +2002,27 @@
         <v>Jonas</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f>IF($E8=H$1, $C8 * $D8, "")</f>
+        <f t="shared" ref="H8:M10" si="4">IF($E8=H$1, $C8 * $D8, "")</f>
         <v/>
       </c>
       <c r="I8" t="str">
-        <f>IF($E8=I$1, $C8 * $D8, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J8" t="str">
-        <f>IF($E8=J$1, $C8 * $D8, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K8" t="str">
-        <f>IF($E8=K$1, $C8 * $D8, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L8" t="str">
-        <f>IF($E8=L$1, $C8 * $D8, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M8" s="8">
-        <f>IF($E8=M$1, $C8 * $D8, "")</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="O8" s="7" t="s">
@@ -2047,27 +2059,27 @@
         <v>Adrian</v>
       </c>
       <c r="H9" s="7">
-        <f>IF($E9=H$1, $C9 * $D9, "")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I9" t="str">
-        <f>IF($E9=I$1, $C9 * $D9, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f>IF($E9=J$1, $C9 * $D9, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f>IF($E9=K$1, $C9 * $D9, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L9" t="str">
-        <f>IF($E9=L$1, $C9 * $D9, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M9" s="8" t="str">
-        <f>IF($E9=M$1, $C9 * $D9, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2089,27 +2101,27 @@
         <v>Adrian</v>
       </c>
       <c r="H10" s="7">
-        <f>IF($E10=H$1, $C10 * $D10, "")</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="I10" t="str">
-        <f>IF($E10=I$1, $C10 * $D10, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J10" t="str">
-        <f>IF($E10=J$1, $C10 * $D10, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K10" t="str">
-        <f>IF($E10=K$1, $C10 * $D10, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L10" t="str">
-        <f>IF($E10=L$1, $C10 * $D10, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M10" s="8" t="str">
-        <f>IF($E10=M$1, $C10 * $D10, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2177,7 +2189,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
@@ -2215,8 +2227,11 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
       </c>
       <c r="C14">
         <v>52</v>
@@ -2249,14 +2264,27 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E15" s="8"/>
+      <c r="A15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H15" s="7" t="str">
         <f>IF($E14=H$1, $C7 * $D7, "")</f>
         <v/>
       </c>
-      <c r="I15" t="str">
-        <f>IF($E14=I$1, $C7 * $D7, "")</f>
-        <v/>
+      <c r="I15">
+        <v>13</v>
       </c>
       <c r="J15" t="str">
         <f>IF($E14=J$1, $C7 * $D7, "")</f>
@@ -2272,57 +2300,79 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E16" s="8"/>
+      <c r="A16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H16" s="7" t="str">
-        <f>IF($E15=H$1, $Q7 * $R7, "")</f>
-        <v/>
-      </c>
-      <c r="I16" t="str">
-        <f>IF($E15=I$1, $Q7 * $R7, "")</f>
-        <v/>
+        <f t="shared" ref="H16:M17" si="5">IF($E15=H$1, $Q7 * $R7, "")</f>
+        <v/>
+      </c>
+      <c r="I16">
+        <v>3</v>
       </c>
       <c r="J16" t="str">
-        <f>IF($E15=J$1, $Q7 * $R7, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K16" t="str">
-        <f>IF($E15=K$1, $Q7 * $R7, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L16" t="str">
-        <f>IF($E15=L$1, $Q7 * $R7, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M16" s="8" t="str">
-        <f>IF($E15=M$1, $Q7 * $R7, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="H17" s="7" t="str">
-        <f>IF($E16=H$1, $Q8 * $R8, "")</f>
-        <v/>
-      </c>
-      <c r="I17" t="str">
-        <f>IF($E16=I$1, $Q8 * $R8, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J17" t="str">
-        <f>IF($E16=J$1, $Q8 * $R8, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f>IF($E16=K$1, $Q8 * $R8, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f>IF($E16=L$1, $Q8 * $R8, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M17" s="8" t="str">
-        <f>IF($E16=M$1, $Q8 * $R8, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2330,27 +2380,27 @@
       <c r="A18" s="7"/>
       <c r="E18" s="8"/>
       <c r="H18" s="7" t="str">
-        <f t="shared" ref="H18:H43" si="3">IF($E17=H$1, $C17 * $D17, "")</f>
+        <f t="shared" ref="H18:H43" si="6">IF($E17=H$1, $C17 * $D17, "")</f>
         <v/>
       </c>
       <c r="I18" t="str">
-        <f t="shared" ref="I18:I43" si="4">IF($E17=I$1, $C17 * $D17, "")</f>
+        <f t="shared" ref="I18:I43" si="7">IF($E17=I$1, $C17 * $D17, "")</f>
         <v/>
       </c>
       <c r="J18" t="str">
-        <f t="shared" ref="J18:J43" si="5">IF($E17=J$1, $C17 * $D17, "")</f>
-        <v/>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" ref="K18:K43" si="6">IF($E17=K$1, $C17 * $D17, "")</f>
-        <v/>
+        <f t="shared" ref="J18:J43" si="8">IF($E17=J$1, $C17 * $D17, "")</f>
+        <v/>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K43" si="9">IF($E17=K$1, $C17 * $D17, "")</f>
+        <v>14</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" ref="L18:L43" si="7">IF($E17=L$1, $C17 * $D17, "")</f>
+        <f t="shared" ref="L18:L43" si="10">IF($E17=L$1, $C17 * $D17, "")</f>
         <v/>
       </c>
       <c r="M18" s="8" t="str">
-        <f t="shared" ref="M18:M43" si="8">IF($E17=M$1, $C17 * $D17, "")</f>
+        <f t="shared" ref="M18:M43" si="11">IF($E17=M$1, $C17 * $D17, "")</f>
         <v/>
       </c>
     </row>
@@ -2358,27 +2408,27 @@
       <c r="A19" s="7"/>
       <c r="E19" s="8"/>
       <c r="H19" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2386,27 +2436,27 @@
       <c r="A20" s="7"/>
       <c r="E20" s="8"/>
       <c r="H20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2414,27 +2464,27 @@
       <c r="A21" s="7"/>
       <c r="E21" s="8"/>
       <c r="H21" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2442,27 +2492,27 @@
       <c r="A22" s="7"/>
       <c r="E22" s="8"/>
       <c r="H22" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2470,27 +2520,27 @@
       <c r="A23" s="7"/>
       <c r="E23" s="8"/>
       <c r="H23" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M23" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2498,27 +2548,27 @@
       <c r="A24" s="7"/>
       <c r="E24" s="8"/>
       <c r="H24" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M24" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2526,27 +2576,27 @@
       <c r="A25" s="7"/>
       <c r="E25" s="8"/>
       <c r="H25" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M25" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2554,27 +2604,27 @@
       <c r="A26" s="7"/>
       <c r="E26" s="8"/>
       <c r="H26" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M26" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2582,27 +2632,27 @@
       <c r="A27" s="7"/>
       <c r="E27" s="8"/>
       <c r="H27" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M27" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2610,27 +2660,27 @@
       <c r="A28" s="7"/>
       <c r="E28" s="8"/>
       <c r="H28" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M28" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2638,27 +2688,27 @@
       <c r="A29" s="7"/>
       <c r="E29" s="8"/>
       <c r="H29" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M29" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2666,27 +2716,27 @@
       <c r="A30" s="7"/>
       <c r="E30" s="8"/>
       <c r="H30" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M30" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2694,27 +2744,27 @@
       <c r="A31" s="7"/>
       <c r="E31" s="8"/>
       <c r="H31" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M31" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2722,27 +2772,27 @@
       <c r="A32" s="7"/>
       <c r="E32" s="8"/>
       <c r="H32" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M32" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2750,27 +2800,27 @@
       <c r="A33" s="7"/>
       <c r="E33" s="8"/>
       <c r="H33" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M33" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2778,27 +2828,27 @@
       <c r="A34" s="7"/>
       <c r="E34" s="8"/>
       <c r="H34" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M34" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2806,27 +2856,27 @@
       <c r="A35" s="7"/>
       <c r="E35" s="8"/>
       <c r="H35" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M35" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2834,27 +2884,27 @@
       <c r="A36" s="7"/>
       <c r="E36" s="8"/>
       <c r="H36" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M36" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2862,27 +2912,27 @@
       <c r="A37" s="7"/>
       <c r="E37" s="8"/>
       <c r="H37" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M37" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2890,27 +2940,27 @@
       <c r="A38" s="7"/>
       <c r="E38" s="8"/>
       <c r="H38" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M38" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2918,27 +2968,27 @@
       <c r="A39" s="7"/>
       <c r="E39" s="8"/>
       <c r="H39" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M39" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2946,27 +2996,27 @@
       <c r="A40" s="7"/>
       <c r="E40" s="8"/>
       <c r="H40" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M40" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2974,27 +3024,27 @@
       <c r="A41" s="7"/>
       <c r="E41" s="8"/>
       <c r="H41" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M41" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -3002,27 +3052,27 @@
       <c r="A42" s="7"/>
       <c r="E42" s="8"/>
       <c r="H42" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M42" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -3030,27 +3080,27 @@
       <c r="A43" s="7"/>
       <c r="E43" s="8"/>
       <c r="H43" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M43" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -3058,27 +3108,27 @@
       <c r="A44" s="7"/>
       <c r="E44" s="8"/>
       <c r="H44" s="7" t="str">
-        <f t="shared" ref="H44:H72" si="9">IF($E43=H$1, $C43 * $D43, "")</f>
+        <f t="shared" ref="H44:H72" si="12">IF($E43=H$1, $C43 * $D43, "")</f>
         <v/>
       </c>
       <c r="I44" t="str">
-        <f t="shared" ref="I44:I72" si="10">IF($E43=I$1, $C43 * $D43, "")</f>
+        <f t="shared" ref="I44:I72" si="13">IF($E43=I$1, $C43 * $D43, "")</f>
         <v/>
       </c>
       <c r="J44" t="str">
-        <f t="shared" ref="J44:J72" si="11">IF($E43=J$1, $C43 * $D43, "")</f>
+        <f t="shared" ref="J44:J72" si="14">IF($E43=J$1, $C43 * $D43, "")</f>
         <v/>
       </c>
       <c r="K44" t="str">
-        <f t="shared" ref="K44:K72" si="12">IF($E43=K$1, $C43 * $D43, "")</f>
+        <f t="shared" ref="K44:K72" si="15">IF($E43=K$1, $C43 * $D43, "")</f>
         <v/>
       </c>
       <c r="L44" t="str">
-        <f t="shared" ref="L44:L72" si="13">IF($E43=L$1, $C43 * $D43, "")</f>
+        <f t="shared" ref="L44:L72" si="16">IF($E43=L$1, $C43 * $D43, "")</f>
         <v/>
       </c>
       <c r="M44" s="8" t="str">
-        <f t="shared" ref="M44:M72" si="14">IF($E43=M$1, $C43 * $D43, "")</f>
+        <f t="shared" ref="M44:M72" si="17">IF($E43=M$1, $C43 * $D43, "")</f>
         <v/>
       </c>
     </row>
@@ -3086,27 +3136,27 @@
       <c r="A45" s="7"/>
       <c r="E45" s="8"/>
       <c r="H45" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M45" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3114,27 +3164,27 @@
       <c r="A46" s="7"/>
       <c r="E46" s="8"/>
       <c r="H46" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M46" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3142,27 +3192,27 @@
       <c r="A47" s="7"/>
       <c r="E47" s="8"/>
       <c r="H47" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M47" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3170,27 +3220,27 @@
       <c r="A48" s="7"/>
       <c r="E48" s="8"/>
       <c r="H48" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M48" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3198,27 +3248,27 @@
       <c r="A49" s="7"/>
       <c r="E49" s="8"/>
       <c r="H49" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M49" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3226,27 +3276,27 @@
       <c r="A50" s="7"/>
       <c r="E50" s="8"/>
       <c r="H50" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M50" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3254,27 +3304,27 @@
       <c r="A51" s="7"/>
       <c r="E51" s="8"/>
       <c r="H51" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M51" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3282,27 +3332,27 @@
       <c r="A52" s="7"/>
       <c r="E52" s="8"/>
       <c r="H52" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M52" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3310,27 +3360,27 @@
       <c r="A53" s="7"/>
       <c r="E53" s="8"/>
       <c r="H53" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M53" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3338,27 +3388,27 @@
       <c r="A54" s="7"/>
       <c r="E54" s="8"/>
       <c r="H54" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M54" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3366,27 +3416,27 @@
       <c r="A55" s="7"/>
       <c r="E55" s="8"/>
       <c r="H55" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M55" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3394,27 +3444,27 @@
       <c r="A56" s="7"/>
       <c r="E56" s="8"/>
       <c r="H56" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M56" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3422,27 +3472,27 @@
       <c r="A57" s="7"/>
       <c r="E57" s="8"/>
       <c r="H57" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M57" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3450,27 +3500,27 @@
       <c r="A58" s="7"/>
       <c r="E58" s="8"/>
       <c r="H58" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M58" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3478,27 +3528,27 @@
       <c r="A59" s="7"/>
       <c r="E59" s="8"/>
       <c r="H59" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M59" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3506,27 +3556,27 @@
       <c r="A60" s="7"/>
       <c r="E60" s="8"/>
       <c r="H60" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M60" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3534,27 +3584,27 @@
       <c r="A61" s="7"/>
       <c r="E61" s="8"/>
       <c r="H61" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M61" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3562,27 +3612,27 @@
       <c r="A62" s="7"/>
       <c r="E62" s="8"/>
       <c r="H62" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M62" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3590,27 +3640,27 @@
       <c r="A63" s="7"/>
       <c r="E63" s="8"/>
       <c r="H63" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M63" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3618,27 +3668,27 @@
       <c r="A64" s="7"/>
       <c r="E64" s="8"/>
       <c r="H64" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M64" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3646,27 +3696,27 @@
       <c r="A65" s="7"/>
       <c r="E65" s="8"/>
       <c r="H65" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M65" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3674,27 +3724,27 @@
       <c r="A66" s="7"/>
       <c r="E66" s="8"/>
       <c r="H66" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M66" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3702,27 +3752,27 @@
       <c r="A67" s="7"/>
       <c r="E67" s="8"/>
       <c r="H67" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M67" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3730,27 +3780,27 @@
       <c r="A68" s="7"/>
       <c r="E68" s="8"/>
       <c r="H68" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M68" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3758,27 +3808,27 @@
       <c r="A69" s="7"/>
       <c r="E69" s="8"/>
       <c r="H69" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M69" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3786,27 +3836,27 @@
       <c r="A70" s="7"/>
       <c r="E70" s="8"/>
       <c r="H70" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M70" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3817,53 +3867,53 @@
       <c r="D71" s="10"/>
       <c r="E71" s="11"/>
       <c r="H71" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I71" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J71" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K71" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L71" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M71" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
